--- a/Documentation/ball color sensor data.xlsx
+++ b/Documentation/ball color sensor data.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\github\TeamAiR-MRDC\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/github/TeamAiR-MRDC/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6015CB44-1AC7-4F88-B183-9CF29AB6DEF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FAE8D-DC24-E148-B051-225ED06DD264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AF1CD26-C814-49C7-A263-52867A0104F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8AF1CD26-C814-49C7-A263-52867A0104F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$K$2:$K$69</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$69</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$2:$H$67</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$2:$H$67</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$I$2:$I$67</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>hue</t>
   </si>
@@ -79,6 +86,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -131,6 +141,1336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B1BD2F5B-1176-4E4C-BEC2-C0E6D5283938}">
+          <cx:dataPt idx="3"/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{0861C257-4DB4-A246-9629-D1DBCE59C00A}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F22230-17C8-6F42-BACE-513C4254C876}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8661400" y="9448800"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27BBB90-BF5D-1541-BF58-162B4EEA0CB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8636000" y="6527800"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,15 +1770,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32793C63-7B2E-4F92-87C5-3660C4C0EE2F}">
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -526,7 +1866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -558,7 +1898,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0</v>
       </c>
@@ -590,7 +1930,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -622,7 +1962,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0</v>
       </c>
@@ -654,7 +1994,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0</v>
       </c>
@@ -686,7 +2026,7 @@
         <v>5907</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0</v>
       </c>
@@ -718,7 +2058,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0</v>
       </c>
@@ -750,7 +2090,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>-2</v>
       </c>
@@ -782,7 +2122,7 @@
         <v>6471</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0</v>
       </c>
@@ -814,7 +2154,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -846,7 +2186,7 @@
         <v>6268</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2</v>
       </c>
@@ -878,7 +2218,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1</v>
       </c>
@@ -910,7 +2250,7 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -942,7 +2282,7 @@
         <v>5201</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -974,7 +2314,7 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1006,7 +2346,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1038,7 +2378,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -1070,7 +2410,7 @@
         <v>6154</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2</v>
       </c>
@@ -1102,7 +2442,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3</v>
       </c>
@@ -1134,7 +2474,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -1166,7 +2506,7 @@
         <v>6413</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1198,7 +2538,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>2</v>
       </c>
@@ -1230,7 +2570,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -1262,7 +2602,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
@@ -1294,7 +2634,7 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>3</v>
       </c>
@@ -1326,7 +2666,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>2</v>
       </c>
@@ -1358,7 +2698,7 @@
         <v>6322</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1390,7 +2730,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1422,7 +2762,7 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1454,7 +2794,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
@@ -1486,7 +2826,7 @@
         <v>5881</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1</v>
       </c>
@@ -1518,7 +2858,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>4</v>
       </c>
@@ -1550,7 +2890,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>3</v>
       </c>
@@ -1582,7 +2922,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>4</v>
       </c>
@@ -1614,7 +2954,7 @@
         <v>6115</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>2</v>
       </c>
@@ -1646,7 +2986,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>2</v>
       </c>
@@ -1678,7 +3018,7 @@
         <v>6154</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>2</v>
       </c>
@@ -1710,7 +3050,7 @@
         <v>6259</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>2</v>
       </c>
@@ -1736,7 +3076,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>2</v>
       </c>
@@ -1762,7 +3102,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>3</v>
       </c>
@@ -1788,7 +3128,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>3</v>
       </c>
@@ -1814,7 +3154,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +3185,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1876,7 +3216,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +3247,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +3278,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1969,7 +3309,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E49">
         <v>5</v>
       </c>
@@ -1989,7 +3329,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E50">
         <v>4</v>
       </c>
@@ -2009,7 +3349,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E51">
         <v>6</v>
       </c>
@@ -2029,7 +3369,7 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E52">
         <v>7</v>
       </c>
@@ -2049,7 +3389,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E53">
         <v>5</v>
       </c>
@@ -2069,7 +3409,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E54">
         <v>10</v>
       </c>
@@ -2089,7 +3429,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +3454,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>11</v>
       </c>
@@ -2139,7 +3479,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>13</v>
       </c>
@@ -2164,7 +3504,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +3529,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +3554,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H60">
         <v>38</v>
       </c>
@@ -2228,7 +3568,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H61">
         <v>45</v>
       </c>
@@ -2242,7 +3582,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H62">
         <v>31</v>
       </c>
@@ -2256,7 +3596,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H63">
         <v>33</v>
       </c>
@@ -2270,7 +3610,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H64">
         <v>48</v>
       </c>
@@ -2284,7 +3624,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="65" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H65">
         <v>58</v>
       </c>
@@ -2298,7 +3638,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H66">
         <v>55</v>
       </c>
@@ -2312,7 +3652,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="67" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H67">
         <v>53</v>
       </c>
@@ -2326,7 +3666,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="68" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
         <v>10</v>
       </c>
@@ -2345,7 +3685,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="69" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +3704,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="70" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>13</v>
       </c>
@@ -2376,8 +3716,19 @@
         <f>MIN(I2:I67)</f>
         <v>2417</v>
       </c>
-    </row>
-    <row r="71" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <f>_xlfn.STDEV.S(K2:K69)</f>
+        <v>5.5627160955746149</v>
+      </c>
+      <c r="L70">
+        <f>_xlfn.STDEV.S(L2:L69)</f>
+        <v>240.82583761915845</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
         <v>14</v>
       </c>
@@ -2389,8 +3740,19 @@
         <f>MAX(I2:I67)</f>
         <v>2864</v>
       </c>
-    </row>
-    <row r="72" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71">
+        <f>AVERAGE(K2:K69)</f>
+        <v>108.73529411764706</v>
+      </c>
+      <c r="L71">
+        <f>AVERAGE(L2:L69)</f>
+        <v>4250.9264705882351</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>12</v>
       </c>
@@ -2402,8 +3764,129 @@
         <f>I71-I70</f>
         <v>447</v>
       </c>
+      <c r="J72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72">
+        <f>MIN(K2:K69)</f>
+        <v>92</v>
+      </c>
+      <c r="L72">
+        <f>MIN(L2:L69)</f>
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="73" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73">
+        <f>MAX(K2:K69)</f>
+        <v>116</v>
+      </c>
+      <c r="L73">
+        <f>MAX(L2:L69)</f>
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="74" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74">
+        <f>K73-K72</f>
+        <v>24</v>
+      </c>
+      <c r="L74">
+        <f>L73-L72</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>-1</v>
+      </c>
+      <c r="K76">
+        <f>$K$71+J76*$K$70</f>
+        <v>103.17257802207244</v>
+      </c>
+      <c r="L76">
+        <f>$L$71+J76*$L$70</f>
+        <v>4010.1006329690767</v>
+      </c>
+    </row>
+    <row r="77" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77:K81" si="0">$K$71+J77*$K$70</f>
+        <v>114.29801021322167</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ref="L77:L81" si="1">$L$71+J77*$L$70</f>
+        <v>4491.752308207394</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>-2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="0"/>
+        <v>97.609861926497828</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>3769.2747953499183</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="0"/>
+        <v>119.86072630879629</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>4732.5781458265519</v>
+      </c>
+    </row>
+    <row r="80" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>-3</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="0"/>
+        <v>92.047145830923213</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>3528.4489577307595</v>
+      </c>
+    </row>
+    <row r="81" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="0"/>
+        <v>125.4234424043709</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>4973.4039834457108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>